--- a/rider/monthly/2017_1.xlsx
+++ b/rider/monthly/2017_1.xlsx
@@ -327,91 +327,91 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>156</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>266</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>248</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>304</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>133</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>85</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>271</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>229</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>243</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>209</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>283</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>83</c:v>
-                </c:pt>
                 <c:pt idx="14">
-                  <c:v>248</c:v>
+                  <c:v>238</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>202</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>296</c:v>
+                  <c:v>275</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>230</c:v>
+                  <c:v>246</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>174</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>126</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>209</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>208</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>222</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>221</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>253</c:v>
+                  <c:v>236</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>113</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>133</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>262</c:v>
+                  <c:v>286</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>208</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -535,91 +535,91 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>224.7</c:v>
+                  <c:v>229.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>208</c:v>
+                  <c:v>208.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>207</c:v>
+                  <c:v>193.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>224</c:v>
+                  <c:v>217.78</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>229.7</c:v>
+                  <c:v>231.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>117.45</c:v>
+                  <c:v>118.27</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>105.22</c:v>
+                  <c:v>103.33</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>228.91</c:v>
+                  <c:v>232.55</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>209.91</c:v>
+                  <c:v>209.82</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>210.27</c:v>
+                  <c:v>195.73</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>222.5</c:v>
+                  <c:v>220.1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>234.55</c:v>
+                  <c:v>236.55</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>115.83</c:v>
+                  <c:v>117.42</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>103</c:v>
+                  <c:v>101.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>213.08</c:v>
+                  <c:v>212.17</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>209.58</c:v>
+                  <c:v>194.17</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>229.18</c:v>
+                  <c:v>225.09</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>234.17</c:v>
+                  <c:v>237.33</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>120.31</c:v>
+                  <c:v>121.92</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>105.09</c:v>
+                  <c:v>103.64</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>227.25</c:v>
+                  <c:v>230.75</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>212.69</c:v>
+                  <c:v>209.38</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>210.54</c:v>
+                  <c:v>194.92</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>228.5</c:v>
+                  <c:v>224.67</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>235.62</c:v>
+                  <c:v>237.23</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>119.79</c:v>
+                  <c:v>121.14</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>107.42</c:v>
+                  <c:v>105.92</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>229.92</c:v>
+                  <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>212.36</c:v>
+                  <c:v>211.64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1272,10 +1272,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D2">
-        <v>224.7</v>
+        <v>229.3</v>
       </c>
       <c r="E2">
         <v>98.51000000000001</v>
@@ -1289,10 +1289,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D3">
-        <v>208</v>
+        <v>208.6</v>
       </c>
       <c r="E3">
         <v>98.67</v>
@@ -1306,10 +1306,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>266</v>
+        <v>209</v>
       </c>
       <c r="D4">
-        <v>207</v>
+        <v>193.5</v>
       </c>
       <c r="E4">
         <v>98.83</v>
@@ -1323,10 +1323,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D5">
-        <v>224</v>
+        <v>217.78</v>
       </c>
       <c r="E5">
         <v>98.98999999999999</v>
@@ -1340,10 +1340,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>304</v>
+        <v>266</v>
       </c>
       <c r="D6">
-        <v>229.7</v>
+        <v>231.3</v>
       </c>
       <c r="E6">
         <v>99.16</v>
@@ -1357,10 +1357,10 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D7">
-        <v>117.45</v>
+        <v>118.27</v>
       </c>
       <c r="E7">
         <v>99.31999999999999</v>
@@ -1374,10 +1374,10 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D8">
-        <v>105.22</v>
+        <v>103.33</v>
       </c>
       <c r="E8">
         <v>99.48</v>
@@ -1391,10 +1391,10 @@
         <v>19</v>
       </c>
       <c r="C9">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D9">
-        <v>228.91</v>
+        <v>232.55</v>
       </c>
       <c r="E9">
         <v>99.64</v>
@@ -1408,10 +1408,10 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D10">
-        <v>209.91</v>
+        <v>209.82</v>
       </c>
       <c r="E10">
         <v>99.8</v>
@@ -1425,10 +1425,10 @@
         <v>21</v>
       </c>
       <c r="C11">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="D11">
-        <v>210.27</v>
+        <v>195.73</v>
       </c>
       <c r="E11">
         <v>99.95999999999999</v>
@@ -1442,10 +1442,10 @@
         <v>22</v>
       </c>
       <c r="C12">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="D12">
-        <v>222.5</v>
+        <v>220.1</v>
       </c>
       <c r="E12">
         <v>100.12</v>
@@ -1459,10 +1459,10 @@
         <v>23</v>
       </c>
       <c r="C13">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D13">
-        <v>234.55</v>
+        <v>236.55</v>
       </c>
       <c r="E13">
         <v>100.29</v>
@@ -1476,10 +1476,10 @@
         <v>24</v>
       </c>
       <c r="C14">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D14">
-        <v>115.83</v>
+        <v>117.42</v>
       </c>
       <c r="E14">
         <v>100.45</v>
@@ -1493,10 +1493,10 @@
         <v>25</v>
       </c>
       <c r="C15">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D15">
-        <v>103</v>
+        <v>101.5</v>
       </c>
       <c r="E15">
         <v>100.61</v>
@@ -1510,10 +1510,10 @@
         <v>26</v>
       </c>
       <c r="C16">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D16">
-        <v>213.08</v>
+        <v>212.17</v>
       </c>
       <c r="E16">
         <v>100.93</v>
@@ -1527,10 +1527,10 @@
         <v>27</v>
       </c>
       <c r="C17">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="D17">
-        <v>209.58</v>
+        <v>194.17</v>
       </c>
       <c r="E17">
         <v>101.09</v>
@@ -1544,10 +1544,10 @@
         <v>28</v>
       </c>
       <c r="C18">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="D18">
-        <v>229.18</v>
+        <v>225.09</v>
       </c>
       <c r="E18">
         <v>101.25</v>
@@ -1561,10 +1561,10 @@
         <v>29</v>
       </c>
       <c r="C19">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="D19">
-        <v>234.17</v>
+        <v>237.33</v>
       </c>
       <c r="E19">
         <v>101.42</v>
@@ -1578,10 +1578,10 @@
         <v>30</v>
       </c>
       <c r="C20">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D20">
-        <v>120.31</v>
+        <v>121.92</v>
       </c>
       <c r="E20">
         <v>101.58</v>
@@ -1595,10 +1595,10 @@
         <v>31</v>
       </c>
       <c r="C21">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D21">
-        <v>105.09</v>
+        <v>103.64</v>
       </c>
       <c r="E21">
         <v>101.74</v>
@@ -1612,10 +1612,10 @@
         <v>32</v>
       </c>
       <c r="C22">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D22">
-        <v>227.25</v>
+        <v>230.75</v>
       </c>
       <c r="E22">
         <v>101.9</v>
@@ -1629,10 +1629,10 @@
         <v>33</v>
       </c>
       <c r="C23">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="D23">
-        <v>212.69</v>
+        <v>209.38</v>
       </c>
       <c r="E23">
         <v>102.06</v>
@@ -1646,10 +1646,10 @@
         <v>34</v>
       </c>
       <c r="C24">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="D24">
-        <v>210.54</v>
+        <v>194.92</v>
       </c>
       <c r="E24">
         <v>102.22</v>
@@ -1663,10 +1663,10 @@
         <v>35</v>
       </c>
       <c r="C25">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D25">
-        <v>228.5</v>
+        <v>224.67</v>
       </c>
       <c r="E25">
         <v>102.38</v>
@@ -1680,10 +1680,10 @@
         <v>36</v>
       </c>
       <c r="C26">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="D26">
-        <v>235.62</v>
+        <v>237.23</v>
       </c>
       <c r="E26">
         <v>102.55</v>
@@ -1697,10 +1697,10 @@
         <v>37</v>
       </c>
       <c r="C27">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D27">
-        <v>119.79</v>
+        <v>121.14</v>
       </c>
       <c r="E27">
         <v>102.71</v>
@@ -1714,10 +1714,10 @@
         <v>38</v>
       </c>
       <c r="C28">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D28">
-        <v>107.42</v>
+        <v>105.92</v>
       </c>
       <c r="E28">
         <v>102.87</v>
@@ -1731,10 +1731,10 @@
         <v>39</v>
       </c>
       <c r="C29">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="D29">
-        <v>229.92</v>
+        <v>235</v>
       </c>
       <c r="E29">
         <v>103.03</v>
@@ -1748,10 +1748,10 @@
         <v>40</v>
       </c>
       <c r="C30">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="D30">
-        <v>212.36</v>
+        <v>211.64</v>
       </c>
       <c r="E30">
         <v>103.19</v>
